--- a/mess model.xlsx
+++ b/mess model.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>GH</t>
   </si>
@@ -177,12 +177,15 @@
   <si>
     <t>Hall 10</t>
   </si>
+  <si>
+    <t>From [HALL] --&gt; To [HALL]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +244,13 @@
     <font>
       <b/>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -320,7 +330,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -370,7 +380,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -387,6 +397,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -697,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +971,9 @@
       </c>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="23" t="s">
+        <v>26</v>
+      </c>
       <c r="B11" s="15" t="s">
         <v>10</v>
       </c>
